--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2643,11 +2643,23 @@
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:69">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
         <v>42</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -2720,7 +2732,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -2796,12 +2808,8 @@
       <c r="B44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="C44"/>
+      <c r="D44"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -2873,12 +2881,11 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2947,6 +2954,9 @@
     <row r="46" spans="1:69">
       <c r="B46" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -3019,9 +3029,6 @@
     </row>
     <row r="47" spans="1:69">
       <c r="B47" s="3"/>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
       <c r="D47" t="s">
         <v>33</v>
       </c>
@@ -3093,12 +3100,6 @@
     </row>
     <row r="48" spans="1:69">
       <c r="B48" s="2"/>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>

--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>2 poll widgets in HOME, so do 2 advertising widget in HOME</t>
   </si>
 </sst>
 </file>
@@ -839,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,7 +895,7 @@
       </c>
     </row>
     <row r="3" spans="1:69">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -903,7 +909,7 @@
       </c>
     </row>
     <row r="4" spans="1:69">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -979,7 +985,7 @@
       <c r="BQ4" s="12"/>
     </row>
     <row r="5" spans="1:69">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1052,7 +1058,7 @@
       <c r="BQ5" s="12"/>
     </row>
     <row r="6" spans="1:69" s="12" customFormat="1">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>4.2</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1060,7 +1066,7 @@
       </c>
     </row>
     <row r="7" spans="1:69">
-      <c r="A7">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1072,7 +1078,9 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1139,7 +1147,7 @@
       <c r="BQ7" s="12"/>
     </row>
     <row r="8" spans="1:69">
-      <c r="A8">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1151,7 +1159,9 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1218,7 +1228,7 @@
       <c r="BQ8" s="12"/>
     </row>
     <row r="9" spans="1:69" s="12" customFormat="1">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1227,9 +1237,12 @@
       <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:69">
-      <c r="A11">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1310,7 +1323,7 @@
       <c r="BQ11" s="12"/>
     </row>
     <row r="12" spans="1:69">
-      <c r="A12">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1319,7 +1332,9 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1386,7 +1401,7 @@
       <c r="BQ12" s="12"/>
     </row>
     <row r="13" spans="1:69">
-      <c r="A13">
+      <c r="A13" s="11">
         <v>9.1</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1395,7 +1410,9 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1462,7 +1479,7 @@
       <c r="BQ13" s="12"/>
     </row>
     <row r="14" spans="1:69">
-      <c r="A14">
+      <c r="A14" s="11">
         <v>9.1999999999999993</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1471,7 +1488,9 @@
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1538,7 +1557,7 @@
       <c r="BQ14" s="12"/>
     </row>
     <row r="15" spans="1:69">
-      <c r="A15">
+      <c r="A15" s="11">
         <v>9.3000000000000007</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1547,7 +1566,9 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1614,7 +1635,7 @@
       <c r="BQ15" s="12"/>
     </row>
     <row r="16" spans="1:69">
-      <c r="A16">
+      <c r="A16" s="11">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1623,7 +1644,9 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1690,13 +1713,15 @@
       <c r="BQ16" s="12"/>
     </row>
     <row r="17" spans="1:69">
-      <c r="A17">
+      <c r="A17" s="11">
         <v>10.1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -2103,11 +2128,13 @@
       <c r="BQ22" s="12"/>
     </row>
     <row r="23" spans="1:69">
-      <c r="A23">
+      <c r="A23" s="11">
         <v>10.199999999999999</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -2513,7 +2540,7 @@
       <c r="BQ28" s="12"/>
     </row>
     <row r="29" spans="1:69">
-      <c r="A29">
+      <c r="A29" s="11">
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2877,6 +2904,7 @@
       <c r="BQ44" s="12"/>
     </row>
     <row r="45" spans="1:69">
+      <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
@@ -3574,7 +3602,7 @@
       <c r="BQ54" s="12"/>
     </row>
     <row r="55" spans="1:69">
-      <c r="A55">
+      <c r="A55" s="11">
         <v>14</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -3647,7 +3675,7 @@
       <c r="BQ55" s="12"/>
     </row>
     <row r="56" spans="1:69">
-      <c r="A56">
+      <c r="A56" s="11">
         <v>14.1</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -3720,7 +3748,7 @@
       <c r="BQ56" s="12"/>
     </row>
     <row r="57" spans="1:69">
-      <c r="A57" s="12">
+      <c r="A57" s="11">
         <v>14.2</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -3872,7 +3900,7 @@
       <c r="BQ58" s="12"/>
     </row>
     <row r="59" spans="1:69" s="12" customFormat="1">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <v>16</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -3883,7 +3911,7 @@
       </c>
     </row>
     <row r="60" spans="1:69" s="14" customFormat="1">
-      <c r="A60">
+      <c r="A60" s="12">
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3956,7 +3984,7 @@
       <c r="BQ60" s="12"/>
     </row>
     <row r="61" spans="1:69" s="18" customFormat="1">
-      <c r="A61" s="14">
+      <c r="A61" s="11">
         <v>17.100000000000001</v>
       </c>
       <c r="B61" s="19" t="s">
@@ -4035,7 +4063,7 @@
       <c r="BQ61" s="12"/>
     </row>
     <row r="62" spans="1:69">
-      <c r="A62" s="14">
+      <c r="A62" s="11">
         <v>17.2</v>
       </c>
       <c r="B62" s="19" t="s">
@@ -4825,6 +4853,9 @@
       <c r="BQ72" s="12"/>
     </row>
     <row r="73" spans="1:69">
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>

--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -361,7 +361,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -423,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,7 +1480,7 @@
       <c r="BQ13" s="12"/>
     </row>
     <row r="14" spans="1:69">
-      <c r="A14" s="11">
+      <c r="A14" s="27">
         <v>9.1999999999999993</v>
       </c>
       <c r="B14" s="2" t="s">

--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -230,18 +230,12 @@
     <t>4. Notebook: Không save được</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
     <t>2 poll widgets in HOME, so do 2 advertising widget in HOME</t>
   </si>
   <si>
-    <t xml:space="preserve"> c. Không load taggging system</t>
-  </si>
-  <si>
     <t>Remove email field out of profile editing form</t>
   </si>
   <si>
@@ -252,6 +246,15 @@
   </si>
   <si>
     <t>Blog cắt khi tag không tốt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c. Không load tagging system</t>
+  </si>
+  <si>
+    <t>Blograting</t>
+  </si>
+  <si>
+    <t>Đưa nút edit profile vào Info tab</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +369,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -394,15 +403,10 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,15 +421,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -778,12 +784,12 @@
     <col min="2" max="2" width="86.140625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
-      <c r="A1">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -795,13 +801,13 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -843,7 +849,7 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -916,7 +922,7 @@
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -989,7 +995,7 @@
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="9">
@@ -1004,7 +1010,7 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="10"/>
@@ -1085,8 +1091,8 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>50</v>
+      <c r="E8" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1163,7 +1169,7 @@
       <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1180,7 +1186,7 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="10"/>
@@ -1258,7 +1264,7 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="10"/>
@@ -1336,7 +1342,7 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="10"/>
@@ -1414,7 +1420,7 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="10"/>
@@ -1492,7 +1498,7 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="10"/>
@@ -1570,7 +1576,7 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="10"/>
@@ -1645,7 +1651,7 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="10"/>
@@ -1726,7 +1732,7 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="10"/>
@@ -1806,7 +1812,7 @@
       </c>
     </row>
     <row r="19" spans="1:69">
-      <c r="A19">
+      <c r="A19" s="26">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1814,6 +1820,7 @@
       </c>
     </row>
     <row r="20" spans="1:69">
+      <c r="A20" s="26"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1832,7 @@
       </c>
     </row>
     <row r="21" spans="1:69" s="10" customFormat="1">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1834,7 +1841,7 @@
       <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="9"/>
@@ -1847,7 +1854,7 @@
       <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1921,7 +1928,7 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="10"/>
@@ -1990,6 +1997,7 @@
       <c r="BQ23" s="10"/>
     </row>
     <row r="24" spans="1:69">
+      <c r="A24" s="26"/>
       <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
@@ -1999,7 +2007,7 @@
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -2070,7 +2078,7 @@
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2138,7 +2146,7 @@
     </row>
     <row r="26" spans="1:69">
       <c r="B26" s="2"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -2206,7 +2214,7 @@
     </row>
     <row r="27" spans="1:69">
       <c r="B27" s="2"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -2274,7 +2282,7 @@
     </row>
     <row r="28" spans="1:69">
       <c r="B28" s="2"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2342,7 +2350,7 @@
     </row>
     <row r="29" spans="1:69">
       <c r="B29" s="2"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2410,7 +2418,7 @@
     </row>
     <row r="30" spans="1:69">
       <c r="B30" s="2"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2477,7 +2485,7 @@
       <c r="BQ30" s="10"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="E31" s="25"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -2545,7 +2553,7 @@
     </row>
     <row r="32" spans="1:69">
       <c r="B32" s="4"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -2618,7 +2626,7 @@
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2691,7 +2699,7 @@
       <c r="B34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2767,7 +2775,7 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -2834,13 +2842,13 @@
       <c r="BQ35" s="10"/>
     </row>
     <row r="36" spans="1:69">
-      <c r="A36" s="22">
+      <c r="A36" s="26">
         <v>14.3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="E36" s="22"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2910,13 +2918,13 @@
       <c r="A37" s="9">
         <v>15</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -2992,10 +3000,10 @@
       <c r="D38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:69" s="12" customFormat="1">
-      <c r="A39" s="10">
+      <c r="A39" s="19">
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3003,7 +3011,7 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="25"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3080,7 +3088,7 @@
       <c r="D40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="10"/>
@@ -3158,7 +3166,7 @@
       <c r="C41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="10"/>
@@ -3227,15 +3235,15 @@
       <c r="BQ41" s="10"/>
     </row>
     <row r="42" spans="1:69" s="12" customFormat="1">
-      <c r="A42" s="15">
+      <c r="A42" s="27">
         <v>18</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="25"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3302,15 +3310,11 @@
       <c r="BQ42" s="10"/>
     </row>
     <row r="43" spans="1:69" s="12" customFormat="1">
-      <c r="A43">
-        <v>19</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="25"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3376,16 +3380,10 @@
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
     </row>
-    <row r="44" spans="1:69" s="15" customFormat="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="26"/>
+    <row r="44" spans="1:69" s="16" customFormat="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="28"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -3455,13 +3453,7 @@
       <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -3527,82 +3519,82 @@
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
     </row>
-    <row r="46" spans="1:69" s="18" customFormat="1">
+    <row r="46" spans="1:69" s="16" customFormat="1">
       <c r="A46"/>
       <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
-      <c r="AJ46" s="20"/>
-      <c r="AK46" s="20"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="20"/>
-      <c r="AP46" s="20"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
-      <c r="AT46" s="20"/>
-      <c r="AU46" s="20"/>
-      <c r="AV46" s="20"/>
-      <c r="AW46" s="20"/>
-      <c r="AX46" s="20"/>
-      <c r="AY46" s="20"/>
-      <c r="AZ46" s="20"/>
-      <c r="BA46" s="20"/>
-      <c r="BB46" s="20"/>
-      <c r="BC46" s="20"/>
-      <c r="BD46" s="20"/>
-      <c r="BE46" s="20"/>
-      <c r="BF46" s="20"/>
-      <c r="BG46" s="20"/>
-      <c r="BH46" s="20"/>
-      <c r="BI46" s="20"/>
-      <c r="BJ46" s="20"/>
-      <c r="BK46" s="20"/>
-      <c r="BL46" s="20"/>
-      <c r="BM46" s="20"/>
-      <c r="BN46" s="20"/>
-      <c r="BO46" s="20"/>
-      <c r="BP46" s="20"/>
-      <c r="BQ46" s="20"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="17"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
+      <c r="BF46" s="17"/>
+      <c r="BG46" s="17"/>
+      <c r="BH46" s="17"/>
+      <c r="BI46" s="17"/>
+      <c r="BJ46" s="17"/>
+      <c r="BK46" s="17"/>
+      <c r="BL46" s="17"/>
+      <c r="BM46" s="17"/>
+      <c r="BN46" s="17"/>
+      <c r="BO46" s="17"/>
+      <c r="BP46" s="17"/>
+      <c r="BQ46" s="17"/>
     </row>
     <row r="47" spans="1:69">
       <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3672,7 +3664,7 @@
       <c r="B48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -3742,7 +3734,7 @@
       <c r="B49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -3809,77 +3801,15 @@
       <c r="BQ49" s="10"/>
     </row>
     <row r="50" spans="2:69">
-      <c r="E50" s="25"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="10"/>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="10"/>
-      <c r="AU50" s="10"/>
-      <c r="AV50" s="10"/>
-      <c r="AW50" s="10"/>
-      <c r="AX50" s="10"/>
-      <c r="AY50" s="10"/>
-      <c r="AZ50" s="10"/>
-      <c r="BA50" s="10"/>
-      <c r="BB50" s="10"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="10"/>
-      <c r="BE50" s="10"/>
-      <c r="BF50" s="10"/>
-      <c r="BG50" s="10"/>
-      <c r="BH50" s="10"/>
-      <c r="BI50" s="10"/>
-      <c r="BJ50" s="10"/>
-      <c r="BK50" s="10"/>
-      <c r="BL50" s="10"/>
-      <c r="BM50" s="10"/>
-      <c r="BN50" s="10"/>
-      <c r="BO50" s="10"/>
-      <c r="BP50" s="10"/>
-      <c r="BQ50" s="10"/>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="51" spans="2:69">
       <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -3946,10 +3876,10 @@
       <c r="BQ51" s="10"/>
     </row>
     <row r="52" spans="2:69">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="25"/>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="22"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -4017,9 +3947,9 @@
     </row>
     <row r="53" spans="2:69">
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -4086,10 +4016,10 @@
       <c r="BQ53" s="10"/>
     </row>
     <row r="54" spans="2:69">
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="25"/>
+      <c r="B54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="22"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4156,10 +4086,8 @@
       <c r="BQ54" s="10"/>
     </row>
     <row r="55" spans="2:69">
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="25"/>
+      <c r="B55" s="6"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -4226,7 +4154,10 @@
       <c r="BQ55" s="10"/>
     </row>
     <row r="56" spans="2:69">
-      <c r="E56" s="25"/>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="22"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4293,7 +4224,10 @@
       <c r="BQ56" s="10"/>
     </row>
     <row r="57" spans="2:69">
-      <c r="E57" s="25"/>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="22"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4360,7 +4294,10 @@
       <c r="BQ57" s="10"/>
     </row>
     <row r="58" spans="2:69">
-      <c r="E58" s="25"/>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="22"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -4427,7 +4364,7 @@
       <c r="BQ58" s="10"/>
     </row>
     <row r="59" spans="2:69">
-      <c r="E59" s="25"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4494,7 +4431,7 @@
       <c r="BQ59" s="10"/>
     </row>
     <row r="60" spans="2:69">
-      <c r="E60" s="25"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -4561,7 +4498,7 @@
       <c r="BQ60" s="10"/>
     </row>
     <row r="61" spans="2:69">
-      <c r="E61" s="25"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4628,7 +4565,7 @@
       <c r="BQ61" s="10"/>
     </row>
     <row r="62" spans="2:69">
-      <c r="E62" s="25"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -4695,7 +4632,7 @@
       <c r="BQ62" s="10"/>
     </row>
     <row r="63" spans="2:69">
-      <c r="E63" s="25"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4762,7 +4699,7 @@
       <c r="BQ63" s="10"/>
     </row>
     <row r="64" spans="2:69">
-      <c r="E64" s="25"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4829,7 +4766,7 @@
       <c r="BQ64" s="10"/>
     </row>
     <row r="65" spans="5:69">
-      <c r="E65" s="25"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -4896,7 +4833,7 @@
       <c r="BQ65" s="10"/>
     </row>
     <row r="66" spans="5:69">
-      <c r="E66" s="25"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4963,7 +4900,7 @@
       <c r="BQ66" s="10"/>
     </row>
     <row r="67" spans="5:69">
-      <c r="E67" s="25"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -5030,7 +4967,7 @@
       <c r="BQ67" s="10"/>
     </row>
     <row r="68" spans="5:69">
-      <c r="E68" s="25"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -5097,7 +5034,7 @@
       <c r="BQ68" s="10"/>
     </row>
     <row r="69" spans="5:69">
-      <c r="E69" s="25"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -5164,7 +5101,7 @@
       <c r="BQ69" s="10"/>
     </row>
     <row r="70" spans="5:69">
-      <c r="E70" s="25"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -5231,7 +5168,7 @@
       <c r="BQ70" s="10"/>
     </row>
     <row r="71" spans="5:69">
-      <c r="E71" s="25"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -5298,7 +5235,7 @@
       <c r="BQ71" s="10"/>
     </row>
     <row r="72" spans="5:69">
-      <c r="E72" s="25"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -5365,7 +5302,7 @@
       <c r="BQ72" s="10"/>
     </row>
     <row r="73" spans="5:69">
-      <c r="E73" s="25"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -5432,7 +5369,7 @@
       <c r="BQ73" s="10"/>
     </row>
     <row r="74" spans="5:69">
-      <c r="E74" s="25"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -5499,7 +5436,7 @@
       <c r="BQ74" s="10"/>
     </row>
     <row r="75" spans="5:69">
-      <c r="E75" s="25"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>

--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:BQ75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4016,9 +4016,7 @@
       <c r="BQ53" s="10"/>
     </row>
     <row r="54" spans="2:69">
-      <c r="B54" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B54" s="6"/>
       <c r="E54" s="22"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -4086,7 +4084,9 @@
       <c r="BQ54" s="10"/>
     </row>
     <row r="55" spans="2:69">
-      <c r="B55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E55" s="22"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>

--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -84,184 +84,162 @@
     <t>a. Khi chưa login</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status_Hoai</t>
+  </si>
+  <si>
+    <t>Compelete:</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Hoai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Advertising: </t>
+  </si>
+  <si>
+    <t>Thiếu lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOGO hiển thị kích thước quá lớn</t>
+  </si>
+  <si>
+    <t>1. Friends Dialog: GET http://localhost/snorg/query.php?action=GetFriends&amp;owner=0  500 Internal Server Error</t>
+  </si>
+  <si>
+    <t>Kha</t>
+  </si>
+  <si>
+    <t>Photo không stick được tuy đã ở chế độ Public</t>
+  </si>
+  <si>
+    <t>2. Profile: Lỗi khi edit profile. - không save được</t>
+  </si>
+  <si>
+    <t>b. Comment on Blog entry: lỗi - user comment -&gt; các user đã comment bên trên không nhận được</t>
+  </si>
+  <si>
+    <t>b. Notification của Hoaild (k phải là admin). : do hệ thống xuất notify bị lỗi</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Group - không invite friend được - lỗi notify?( join vẫn notify okie)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Không mở được cổ sổ chat trên IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        không tắt được sesion trong IE</t>
+  </si>
+  <si>
+    <t>4. Notebook: Không save được</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>2 poll widgets in HOME, so do 2 advertising widget in HOME</t>
+  </si>
+  <si>
+    <t>Remove email field out of profile editing form</t>
+  </si>
+  <si>
+    <t>Check site notification by default</t>
+  </si>
+  <si>
+    <t>Friend search dialog in Event module</t>
+  </si>
+  <si>
+    <t>Blog cắt khi tag không tốt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c. Không load tagging system</t>
+  </si>
+  <si>
+    <t>Blograting</t>
+  </si>
+  <si>
+    <t>Đưa nút edit profile vào Info tab</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. Enable Recommedation: </t>
+      <t>Huyvtq</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
       </rPr>
-      <t>OK</t>
+      <t> invite you to Gourp</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2. Calendar: </t>
+      <t>Huyvtq</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
       </rPr>
-      <t>OK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Friend Rquest: </t>
+      <t> New event </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF2779E7"/>
+        <rFont val="Inherit"/>
       </rPr>
-      <t>OK</t>
+      <t>New event: http://localhost/snorg/pg/event_calendar/view/23</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4. Post wallpost on friends wallpost: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5. Honour user:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OK</t>
-    </r>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status_Hoai</t>
-  </si>
-  <si>
-    <t>Compelete:</t>
-  </si>
-  <si>
-    <t>Huy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Hoai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Advertising: </t>
-  </si>
-  <si>
-    <t>Thiếu lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOGO hiển thị kích thước quá lớn</t>
-  </si>
-  <si>
-    <t>1. Friends Dialog: GET http://localhost/snorg/query.php?action=GetFriends&amp;owner=0  500 Internal Server Error</t>
-  </si>
-  <si>
-    <t>Kha</t>
-  </si>
-  <si>
-    <t>Photo không stick được tuy đã ở chế độ Public</t>
-  </si>
-  <si>
-    <t>2. Profile: Lỗi khi edit profile. - không save được</t>
-  </si>
-  <si>
-    <t>b. Comment on Blog entry: lỗi - user comment -&gt; các user đã comment bên trên không nhận được</t>
-  </si>
-  <si>
-    <t>b. Notification của Hoaild (k phải là admin). : do hệ thống xuất notify bị lỗi</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Group - không invite friend được - lỗi notify?( join vẫn notify okie)</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Không mở được cổ sổ chat trên IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        không tắt được sesion trong IE</t>
-  </si>
-  <si>
-    <t>4. Notebook: Không save được</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>2 poll widgets in HOME, so do 2 advertising widget in HOME</t>
-  </si>
-  <si>
-    <t>Remove email field out of profile editing form</t>
-  </si>
-  <si>
-    <t>Check site notification by default</t>
-  </si>
-  <si>
-    <t>Friend search dialog in Event module</t>
-  </si>
-  <si>
-    <t>Blog cắt khi tag không tốt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c. Không load tagging system</t>
-  </si>
-  <si>
-    <t>Blograting</t>
-  </si>
-  <si>
-    <t>Đưa nút edit profile vào Info tab</t>
+    <t>facebook Connect API</t>
+  </si>
+  <si>
+    <t>Fb account can not save notification setting</t>
+  </si>
+  <si>
+    <t>Account bình thường k tạo đc event</t>
+  </si>
+  <si>
+    <t>@facebook_1188712810 Đâu rồi mày :D</t>
+  </si>
+  <si>
+    <t>Sửa comment source code</t>
+  </si>
+  <si>
+    <t>Document submit</t>
+  </si>
+  <si>
+    <t>Lỗi css</t>
+  </si>
+  <si>
+    <t>Lỗi CV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +276,16 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2779E7"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="7">
@@ -338,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -361,6 +349,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -369,7 +372,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -411,7 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,10 +431,14 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,6 +482,86 @@
         <a:xfrm>
           <a:off x="609600" y="9144000"/>
           <a:ext cx="2295525" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image001.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="12982575"/>
+          <a:ext cx="2428875" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image001.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="15630525"/>
+          <a:ext cx="2876550" cy="3019425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ75"/>
+  <dimension ref="A1:BQ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,7 +870,7 @@
     <col min="2" max="2" width="86.140625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -796,33 +882,33 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:69">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:69">
@@ -833,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -844,12 +930,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="E4" s="21"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -920,9 +1006,9 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -993,25 +1079,25 @@
         <v>4.2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1086,13 +1172,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1164,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -1181,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1262,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1340,10 +1426,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1418,10 +1504,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1496,10 +1582,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1574,10 +1660,10 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1652,7 +1738,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1724,16 +1810,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1808,11 +1894,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:69">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1820,28 +1906,29 @@
       </c>
     </row>
     <row r="20" spans="1:69">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:69" s="10" customFormat="1">
-      <c r="B21" s="25" t="s">
-        <v>41</v>
+      <c r="A21" s="9"/>
+      <c r="B21" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="9"/>
@@ -1849,12 +1936,12 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1926,10 +2013,10 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1997,17 +2084,17 @@
       <c r="BQ23" s="10"/>
     </row>
     <row r="24" spans="1:69">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -2076,9 +2163,9 @@
     <row r="25" spans="1:69">
       <c r="B25" s="3"/>
       <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2146,7 +2233,7 @@
     </row>
     <row r="26" spans="1:69">
       <c r="B26" s="2"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -2214,7 +2301,7 @@
     </row>
     <row r="27" spans="1:69">
       <c r="B27" s="2"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -2282,7 +2369,7 @@
     </row>
     <row r="28" spans="1:69">
       <c r="B28" s="2"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2350,7 +2437,7 @@
     </row>
     <row r="29" spans="1:69">
       <c r="B29" s="2"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2418,7 +2505,7 @@
     </row>
     <row r="30" spans="1:69">
       <c r="B30" s="2"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2485,7 +2572,7 @@
       <c r="BQ30" s="10"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -2553,7 +2640,7 @@
     </row>
     <row r="32" spans="1:69">
       <c r="B32" s="4"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -2626,7 +2713,7 @@
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2699,7 +2786,7 @@
       <c r="B34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2773,9 +2860,9 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="E35" s="21"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -2842,13 +2929,13 @@
       <c r="BQ35" s="10"/>
     </row>
     <row r="36" spans="1:69">
-      <c r="A36" s="26">
+      <c r="A36" s="9">
         <v>14.3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="E36" s="21"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2918,13 +3005,13 @@
       <c r="A37" s="9">
         <v>15</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>44</v>
+      <c r="B37" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E37" s="21"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -2998,12 +3085,12 @@
         <v>4</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:69" s="12" customFormat="1">
-      <c r="A39" s="19">
+      <c r="A39" s="9">
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3011,7 +3098,7 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3082,14 +3169,14 @@
         <v>17.100000000000001</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -3161,13 +3248,13 @@
         <v>17.2</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3239,11 +3326,11 @@
         <v>18</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="22"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3314,7 +3401,7 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="22"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3382,8 +3469,8 @@
     </row>
     <row r="44" spans="1:69" s="16" customFormat="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="28"/>
-      <c r="E44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -3450,10 +3537,8 @@
       <c r="BQ44" s="17"/>
     </row>
     <row r="45" spans="1:69">
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="22"/>
+      <c r="B45" s="1"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -3521,10 +3606,8 @@
     </row>
     <row r="46" spans="1:69" s="16" customFormat="1">
       <c r="A46"/>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="23"/>
+      <c r="B46" s="1"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -3591,10 +3674,8 @@
       <c r="BQ46" s="17"/>
     </row>
     <row r="47" spans="1:69">
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="22"/>
+      <c r="B47" s="1"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -3661,10 +3742,8 @@
       <c r="BQ47" s="10"/>
     </row>
     <row r="48" spans="1:69">
-      <c r="B48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="22"/>
+      <c r="B48" s="6"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -3730,11 +3809,9 @@
       <c r="BP48" s="10"/>
       <c r="BQ48" s="10"/>
     </row>
-    <row r="49" spans="2:69">
-      <c r="B49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="22"/>
+    <row r="49" spans="1:69">
+      <c r="B49" s="6"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -3800,16 +3877,18 @@
       <c r="BP49" s="10"/>
       <c r="BQ49" s="10"/>
     </row>
-    <row r="50" spans="2:69">
+    <row r="50" spans="1:69">
+      <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="2:69">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:69">
+      <c r="A51" s="9"/>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="E51" s="21"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -3875,11 +3954,12 @@
       <c r="BP51" s="10"/>
       <c r="BQ51" s="10"/>
     </row>
-    <row r="52" spans="2:69">
+    <row r="52" spans="1:69">
+      <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="E52" s="21"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -3945,11 +4025,12 @@
       <c r="BP52" s="10"/>
       <c r="BQ52" s="10"/>
     </row>
-    <row r="53" spans="2:69">
+    <row r="53" spans="1:69">
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="E53" s="21"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -4015,9 +4096,9 @@
       <c r="BP53" s="10"/>
       <c r="BQ53" s="10"/>
     </row>
-    <row r="54" spans="2:69">
+    <row r="54" spans="1:69">
       <c r="B54" s="6"/>
-      <c r="E54" s="22"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4083,11 +4164,11 @@
       <c r="BP54" s="10"/>
       <c r="BQ54" s="10"/>
     </row>
-    <row r="55" spans="2:69">
+    <row r="55" spans="1:69">
       <c r="B55" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -4153,11 +4234,11 @@
       <c r="BP55" s="10"/>
       <c r="BQ55" s="10"/>
     </row>
-    <row r="56" spans="2:69">
+    <row r="56" spans="1:69">
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E56" s="21"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4223,11 +4304,11 @@
       <c r="BP56" s="10"/>
       <c r="BQ56" s="10"/>
     </row>
-    <row r="57" spans="2:69">
+    <row r="57" spans="1:69">
       <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="E57" s="21"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4293,11 +4374,11 @@
       <c r="BP57" s="10"/>
       <c r="BQ57" s="10"/>
     </row>
-    <row r="58" spans="2:69">
+    <row r="58" spans="1:69">
       <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="E58" s="21"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -4363,8 +4444,8 @@
       <c r="BP58" s="10"/>
       <c r="BQ58" s="10"/>
     </row>
-    <row r="59" spans="2:69">
-      <c r="E59" s="22"/>
+    <row r="59" spans="1:69">
+      <c r="E59" s="21"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4430,8 +4511,8 @@
       <c r="BP59" s="10"/>
       <c r="BQ59" s="10"/>
     </row>
-    <row r="60" spans="2:69">
-      <c r="E60" s="22"/>
+    <row r="60" spans="1:69">
+      <c r="E60" s="21"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -4497,8 +4578,8 @@
       <c r="BP60" s="10"/>
       <c r="BQ60" s="10"/>
     </row>
-    <row r="61" spans="2:69">
-      <c r="E61" s="22"/>
+    <row r="61" spans="1:69" ht="15.75" thickBot="1">
+      <c r="E61" s="21"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4564,8 +4645,12 @@
       <c r="BP61" s="10"/>
       <c r="BQ61" s="10"/>
     </row>
-    <row r="62" spans="2:69">
-      <c r="E62" s="22"/>
+    <row r="62" spans="1:69" ht="15.75" thickBot="1">
+      <c r="A62" s="9"/>
+      <c r="B62" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="21"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -4631,8 +4716,12 @@
       <c r="BP62" s="10"/>
       <c r="BQ62" s="10"/>
     </row>
-    <row r="63" spans="2:69">
-      <c r="E63" s="22"/>
+    <row r="63" spans="1:69" ht="15.75" thickBot="1">
+      <c r="A63" s="9"/>
+      <c r="B63" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="21"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4698,8 +4787,12 @@
       <c r="BP63" s="10"/>
       <c r="BQ63" s="10"/>
     </row>
-    <row r="64" spans="2:69">
-      <c r="E64" s="22"/>
+    <row r="64" spans="1:69">
+      <c r="A64" s="9"/>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="21"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4765,8 +4858,8 @@
       <c r="BP64" s="10"/>
       <c r="BQ64" s="10"/>
     </row>
-    <row r="65" spans="5:69">
-      <c r="E65" s="22"/>
+    <row r="65" spans="2:69">
+      <c r="E65" s="21"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -4832,8 +4925,11 @@
       <c r="BP65" s="10"/>
       <c r="BQ65" s="10"/>
     </row>
-    <row r="66" spans="5:69">
-      <c r="E66" s="22"/>
+    <row r="66" spans="2:69">
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="21"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4899,8 +4995,11 @@
       <c r="BP66" s="10"/>
       <c r="BQ66" s="10"/>
     </row>
-    <row r="67" spans="5:69">
-      <c r="E67" s="22"/>
+    <row r="67" spans="2:69">
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="21"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -4966,8 +5065,11 @@
       <c r="BP67" s="10"/>
       <c r="BQ67" s="10"/>
     </row>
-    <row r="68" spans="5:69">
-      <c r="E68" s="22"/>
+    <row r="68" spans="2:69">
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="21"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -5033,8 +5135,8 @@
       <c r="BP68" s="10"/>
       <c r="BQ68" s="10"/>
     </row>
-    <row r="69" spans="5:69">
-      <c r="E69" s="22"/>
+    <row r="69" spans="2:69">
+      <c r="E69" s="21"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -5100,8 +5202,8 @@
       <c r="BP69" s="10"/>
       <c r="BQ69" s="10"/>
     </row>
-    <row r="70" spans="5:69">
-      <c r="E70" s="22"/>
+    <row r="70" spans="2:69">
+      <c r="E70" s="21"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -5167,8 +5269,11 @@
       <c r="BP70" s="10"/>
       <c r="BQ70" s="10"/>
     </row>
-    <row r="71" spans="5:69">
-      <c r="E71" s="22"/>
+    <row r="71" spans="2:69">
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="21"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -5234,8 +5339,8 @@
       <c r="BP71" s="10"/>
       <c r="BQ71" s="10"/>
     </row>
-    <row r="72" spans="5:69">
-      <c r="E72" s="22"/>
+    <row r="72" spans="2:69">
+      <c r="E72" s="21"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -5301,8 +5406,8 @@
       <c r="BP72" s="10"/>
       <c r="BQ72" s="10"/>
     </row>
-    <row r="73" spans="5:69">
-      <c r="E73" s="22"/>
+    <row r="73" spans="2:69">
+      <c r="E73" s="21"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -5368,8 +5473,8 @@
       <c r="BP73" s="10"/>
       <c r="BQ73" s="10"/>
     </row>
-    <row r="74" spans="5:69">
-      <c r="E74" s="22"/>
+    <row r="74" spans="2:69">
+      <c r="E74" s="21"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -5435,8 +5540,8 @@
       <c r="BP74" s="10"/>
       <c r="BQ74" s="10"/>
     </row>
-    <row r="75" spans="5:69">
-      <c r="E75" s="22"/>
+    <row r="75" spans="2:69">
+      <c r="E75" s="21"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -5502,14 +5607,56 @@
       <c r="BP75" s="10"/>
       <c r="BQ75" s="10"/>
     </row>
+    <row r="79" spans="2:69">
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:69">
+      <c r="B80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="10"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="http://localhost/snorg/query.php?action=GetFriends&amp;owner=0"/>
     <hyperlink ref="B34" r:id="rId2" display="http://localhost/snorg/pg/photos/album/57/album1"/>
+    <hyperlink ref="B81" r:id="rId3" display="http://bkitclub.net/release/pg/profile/pg/thewire/facebook_1188712810"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/trunk/_document/Bug Collectios-huy.xlsx
+++ b/trunk/_document/Bug Collectios-huy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Lỗi CV</t>
+  </si>
+  <si>
+    <t>tên user của activity sai</t>
+  </si>
+  <si>
+    <t>ẩn sugestion friend widget khi view profile của firned</t>
   </si>
 </sst>
 </file>
@@ -859,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ102"/>
+  <dimension ref="A1:BQ103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C102"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5645,8 +5651,15 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="10"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C102" s="10"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
